--- a/Data/Completing college/EducationReport(28).xlsx
+++ b/Data/Completing college/EducationReport(28).xlsx
@@ -127,7 +127,7 @@
   <cellStyleXfs>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf applyFont="1" applyFill="1" applyBorder="1" numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" numFmtId="0" fontId="2" fillId="2" borderId="1">
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" readingOrder="1"/>
@@ -152,6 +152,9 @@
     </xf>
     <xf applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" numFmtId="83" fontId="3" fillId="0" borderId="1">
       <alignment horizontal="center" vertical="top" textRotation="0" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" numFmtId="0" fontId="3" fillId="0" borderId="1">
+      <alignment horizontal="right" vertical="top" textRotation="0" wrapText="1" readingOrder="1"/>
     </xf>
     <xf applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" numFmtId="0" fontId="4" fillId="0" borderId="0">
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" readingOrder="1"/>
@@ -323,310 +326,1969 @@
     <row r="4" ht="20.65" customHeight="0">
       <c s="5" t="inlineStr" r="A4">
         <is>
-          <t xml:space="preserve">09000</t>
+          <t xml:space="preserve">30000</t>
         </is>
       </c>
       <c s="5" t="inlineStr" r="B4">
         <is>
-          <t xml:space="preserve">Connecticut</t>
+          <t xml:space="preserve">Montana</t>
         </is>
       </c>
       <c s="6" t="str" r="C4"/>
       <c s="7" r="D4">
-        <v>0.439505742175774</v>
+        <v>0.110110066171387</v>
       </c>
       <c s="7" r="E4">
-        <v>0.296690180426532</v>
+        <v>0.174658764766159</v>
       </c>
       <c s="7" r="F4">
-        <v>0.207919824026143</v>
+        <v>0.197934039708497</v>
       </c>
       <c s="7" r="G4">
-        <v>0.160155635717979</v>
+        <v>0.243702492750856</v>
       </c>
       <c s="3" t="str" r="H4"/>
       <c s="7" r="I4">
-        <v>0.110414010381107</v>
+        <v>0.284828633011438</v>
       </c>
       <c s="7" r="J4">
-        <v>0.0894666970427456</v>
+        <v>0.336555645163451</v>
       </c>
     </row>
     <row r="5" ht="20.65" customHeight="0">
       <c s="5" t="inlineStr" r="A5">
         <is>
-          <t xml:space="preserve">09001</t>
+          <t xml:space="preserve">30001</t>
         </is>
       </c>
       <c s="5" t="inlineStr" r="B5">
         <is>
-          <t xml:space="preserve">Fairfield, CT        </t>
+          <t xml:space="preserve">Beaverhead, MT        </t>
         </is>
       </c>
       <c s="8" r="C5">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c s="7" r="D5">
-        <v>0.404896092124189</v>
+        <v>0.135724331926864</v>
       </c>
       <c s="7" r="E5">
-        <v>0.270169722413635</v>
+        <v>0.185430463576159</v>
       </c>
       <c s="7" r="F5">
-        <v>0.189764019428276</v>
+        <v>0.20600272851296</v>
       </c>
       <c s="7" r="G5">
-        <v>0.156337246445585</v>
+        <v>0.263690987124464</v>
       </c>
       <c s="3" t="str" r="H5"/>
       <c s="7" r="I5">
-        <v>0.109904888913286</v>
+        <v>0.28272334984817</v>
       </c>
       <c s="7" r="J5">
-        <v>0.098059124040784</v>
+        <v>0.331344221105528</v>
       </c>
     </row>
     <row r="6" ht="20.6" customHeight="0">
       <c s="5" t="inlineStr" r="A6">
         <is>
-          <t xml:space="preserve">09003</t>
+          <t xml:space="preserve">30003</t>
         </is>
       </c>
       <c s="5" t="inlineStr" r="B6">
         <is>
-          <t xml:space="preserve">Hartford, CT        </t>
+          <t xml:space="preserve">Big Horn, MT        </t>
         </is>
       </c>
       <c s="8" r="C6">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c s="7" r="D6">
-        <v>0.439179904358819</v>
+        <v>0.0941666666666667</v>
       </c>
       <c s="7" r="E6">
-        <v>0.302908853250214</v>
+        <v>0.127902885292048</v>
       </c>
       <c s="7" r="F6">
-        <v>0.222906145883536</v>
+        <v>0.12760795730228</v>
       </c>
       <c s="7" r="G6">
-        <v>0.176431733636406</v>
+        <v>0.142958445610552</v>
       </c>
       <c s="3" t="str" r="H6"/>
       <c s="7" r="I6">
-        <v>0.122756250255739</v>
+        <v>0.141478212906784</v>
       </c>
       <c s="7" r="J6">
-        <v>0.0969421839906853</v>
+        <v>0.194489247311828</v>
       </c>
     </row>
     <row r="7" ht="20.65" customHeight="0">
       <c s="5" t="inlineStr" r="A7">
         <is>
-          <t xml:space="preserve">09005</t>
+          <t xml:space="preserve">30005</t>
         </is>
       </c>
       <c s="5" t="inlineStr" r="B7">
         <is>
-          <t xml:space="preserve">Litchfield, CT        </t>
+          <t xml:space="preserve">Blaine, MT        </t>
         </is>
       </c>
       <c s="8" r="C7">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c s="7" r="D7">
-        <v>0.456297466431739</v>
+        <v>0.0662460567823344</v>
       </c>
       <c s="7" r="E7">
-        <v>0.294185786575081</v>
+        <v>0.139006342494715</v>
       </c>
       <c s="7" r="F7">
-        <v>0.191276696244813</v>
+        <v>0.143576826196474</v>
       </c>
       <c s="7" r="G7">
-        <v>0.141102077687444</v>
+        <v>0.173986486486486</v>
       </c>
       <c s="3" t="str" r="H7"/>
       <c s="7" r="I7">
-        <v>0.0865725292614118</v>
+        <v>0.175125628140704</v>
       </c>
       <c s="7" r="J7">
-        <v>0.0610938304367056</v>
+        <v>0.246866871600851</v>
       </c>
     </row>
     <row r="8" ht="20.6" customHeight="0">
       <c s="5" t="inlineStr" r="A8">
         <is>
-          <t xml:space="preserve">09007</t>
+          <t xml:space="preserve">30007</t>
         </is>
       </c>
       <c s="5" t="inlineStr" r="B8">
         <is>
-          <t xml:space="preserve">Middlesex, CT        </t>
+          <t xml:space="preserve">Broadwater, MT        </t>
         </is>
       </c>
       <c s="8" r="C8">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c s="7" r="D8">
-        <v>0.426780325420776</v>
+        <v>0.132674664784757</v>
       </c>
       <c s="7" r="E8">
-        <v>0.268936127669678</v>
+        <v>0.118714359771903</v>
       </c>
       <c s="7" r="F8">
-        <v>0.173503781650773</v>
+        <v>0.134615384615385</v>
       </c>
       <c s="7" r="G8">
-        <v>0.112704197731856</v>
+        <v>0.150277687030382</v>
       </c>
       <c s="3" t="str" r="H8"/>
       <c s="7" r="I8">
-        <v>0.0655506817236962</v>
+        <v>0.154662062160829</v>
       </c>
       <c s="7" r="J8">
-        <v>0.050133078437997</v>
+        <v>0.235331363444491</v>
       </c>
     </row>
     <row r="9" ht="20.65" customHeight="0">
       <c s="5" t="inlineStr" r="A9">
         <is>
-          <t xml:space="preserve">09009</t>
+          <t xml:space="preserve">30009</t>
         </is>
       </c>
       <c s="5" t="inlineStr" r="B9">
         <is>
-          <t xml:space="preserve">New Haven, CT        </t>
+          <t xml:space="preserve">Carbon, MT        </t>
         </is>
       </c>
       <c s="8" r="C9">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c s="7" r="D9">
-        <v>0.461461978332345</v>
+        <v>0.071622846781505</v>
       </c>
       <c s="7" r="E9">
-        <v>0.322010582236624</v>
+        <v>0.131285988483685</v>
       </c>
       <c s="7" r="F9">
-        <v>0.224552158990546</v>
+        <v>0.192369406311285</v>
       </c>
       <c s="7" r="G9">
-        <v>0.169923609877421</v>
+        <v>0.232801074466498</v>
       </c>
       <c s="3" t="str" r="H9"/>
       <c s="7" r="I9">
-        <v>0.119574041027152</v>
+        <v>0.279931207831724</v>
       </c>
       <c s="7" r="J9">
-        <v>0.0967656556031973</v>
+        <v>0.315376959442647</v>
       </c>
     </row>
     <row r="10" ht="20.6" customHeight="0">
       <c s="5" t="inlineStr" r="A10">
         <is>
-          <t xml:space="preserve">09011</t>
+          <t xml:space="preserve">30011</t>
         </is>
       </c>
       <c s="5" t="inlineStr" r="B10">
         <is>
-          <t xml:space="preserve">New London, CT        </t>
+          <t xml:space="preserve">Carter, MT        </t>
         </is>
       </c>
       <c s="8" r="C10">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c s="7" r="D10">
-        <v>0.456012389468951</v>
+        <v>0.0513937282229965</v>
       </c>
       <c s="7" r="E10">
-        <v>0.289812390924956</v>
+        <v>0.125441696113074</v>
       </c>
       <c s="7" r="F10">
-        <v>0.190507944398305</v>
+        <v>0.107558139534884</v>
       </c>
       <c s="7" r="G10">
-        <v>0.139589442815249</v>
+        <v>0.136363636363636</v>
       </c>
       <c s="3" t="str" r="H10"/>
       <c s="7" r="I10">
-        <v>0.0947254481662774</v>
+        <v>0.136501516683519</v>
       </c>
       <c s="7" r="J10">
-        <v>0.0696075592872371</v>
+        <v>0.208373904576436</v>
       </c>
     </row>
     <row r="11" ht="20.65" customHeight="0">
       <c s="5" t="inlineStr" r="A11">
         <is>
-          <t xml:space="preserve">09013</t>
+          <t xml:space="preserve">30013</t>
         </is>
       </c>
       <c s="5" t="inlineStr" r="B11">
         <is>
-          <t xml:space="preserve">Tolland, CT        </t>
+          <t xml:space="preserve">Cascade, MT        </t>
         </is>
       </c>
       <c s="8" r="C11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c s="7" r="D11">
-        <v>0.39686959288797</v>
+        <v>0.128554011216776</v>
       </c>
       <c s="7" r="E11">
-        <v>0.232150491663104</v>
+        <v>0.173773800122839</v>
       </c>
       <c s="7" r="F11">
-        <v>0.1528889563337</v>
+        <v>0.183889589007683</v>
       </c>
       <c s="7" r="G11">
-        <v>0.108070915804683</v>
+        <v>0.214759329677259</v>
       </c>
       <c s="3" t="str" r="H11"/>
       <c s="7" r="I11">
-        <v>0.0737702374178865</v>
+        <v>0.230484503618585</v>
       </c>
       <c s="7" r="J11">
-        <v>0.0517732791831536</v>
+        <v>0.277241642656299</v>
       </c>
     </row>
     <row r="12" ht="20.6" customHeight="0">
       <c s="5" t="inlineStr" r="A12">
         <is>
-          <t xml:space="preserve">09015</t>
+          <t xml:space="preserve">30015</t>
         </is>
       </c>
       <c s="5" t="inlineStr" r="B12">
         <is>
-          <t xml:space="preserve">Windham, CT        </t>
+          <t xml:space="preserve">Chouteau, MT        </t>
         </is>
       </c>
       <c s="8" r="C12">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c s="7" r="D12">
-        <v>0.574105732401376</v>
+        <v>0.082176568573015</v>
       </c>
       <c s="7" r="E12">
-        <v>0.406157755109666</v>
+        <v>0.163204747774481</v>
       </c>
       <c s="7" r="F12">
-        <v>0.289062140302951</v>
+        <v>0.167997796750207</v>
       </c>
       <c s="7" r="G12">
-        <v>0.204022907835266</v>
+        <v>0.205368777690904</v>
       </c>
       <c s="3" t="str" r="H12"/>
       <c s="7" r="I12">
-        <v>0.14113742760161</v>
+        <v>0.222481827622015</v>
       </c>
       <c s="7" r="J12">
-        <v>0.105692148130071</v>
-      </c>
-    </row>
-    <row r="13" ht="6" customHeight="1"/>
-    <row r="14" ht="222.75" customHeight="1">
-      <c s="9" t="inlineStr" r="A14">
+        <v>0.273037542662116</v>
+      </c>
+    </row>
+    <row r="13" ht="20.65" customHeight="0">
+      <c s="5" t="inlineStr" r="A13">
+        <is>
+          <t xml:space="preserve">30017</t>
+        </is>
+      </c>
+      <c s="5" t="inlineStr" r="B13">
+        <is>
+          <t xml:space="preserve">Custer, MT        </t>
+        </is>
+      </c>
+      <c s="8" r="C13">
+        <v>7</v>
+      </c>
+      <c s="7" r="D13">
+        <v>0.0866022933011466</v>
+      </c>
+      <c s="7" r="E13">
+        <v>0.153122550300496</v>
+      </c>
+      <c s="7" r="F13">
+        <v>0.160125588697017</v>
+      </c>
+      <c s="7" r="G13">
+        <v>0.188131474613122</v>
+      </c>
+      <c s="3" t="str" r="H13"/>
+      <c s="7" r="I13">
+        <v>0.20066889632107</v>
+      </c>
+      <c s="7" r="J13">
+        <v>0.279654084375365</v>
+      </c>
+    </row>
+    <row r="14" ht="20.6" customHeight="0">
+      <c s="5" t="inlineStr" r="A14">
+        <is>
+          <t xml:space="preserve">30019</t>
+        </is>
+      </c>
+      <c s="5" t="inlineStr" r="B14">
+        <is>
+          <t xml:space="preserve">Daniels, MT        </t>
+        </is>
+      </c>
+      <c s="8" r="C14">
+        <v>9</v>
+      </c>
+      <c s="7" r="D14">
+        <v>0.0470653377630122</v>
+      </c>
+      <c s="7" r="E14">
+        <v>0.129372570794003</v>
+      </c>
+      <c s="7" r="F14">
+        <v>0.114681789540013</v>
+      </c>
+      <c s="7" r="G14">
+        <v>0.141104294478528</v>
+      </c>
+      <c s="3" t="str" r="H14"/>
+      <c s="7" r="I14">
+        <v>0.186773255813953</v>
+      </c>
+      <c s="7" r="J14">
+        <v>0.222905457340507</v>
+      </c>
+    </row>
+    <row r="15" ht="20.65" customHeight="0">
+      <c s="5" t="inlineStr" r="A15">
+        <is>
+          <t xml:space="preserve">30021</t>
+        </is>
+      </c>
+      <c s="5" t="inlineStr" r="B15">
+        <is>
+          <t xml:space="preserve">Dawson, MT        </t>
+        </is>
+      </c>
+      <c s="8" r="C15">
+        <v>7</v>
+      </c>
+      <c s="7" r="D15">
+        <v>0.0750393563057548</v>
+      </c>
+      <c s="7" r="E15">
+        <v>0.130954228083786</v>
+      </c>
+      <c s="7" r="F15">
+        <v>0.132417138237672</v>
+      </c>
+      <c s="7" r="G15">
+        <v>0.150787209868528</v>
+      </c>
+      <c s="3" t="str" r="H15"/>
+      <c s="7" r="I15">
+        <v>0.2</v>
+      </c>
+      <c s="7" r="J15">
+        <v>0.231839730845695</v>
+      </c>
+    </row>
+    <row r="16" ht="20.6" customHeight="0">
+      <c s="5" t="inlineStr" r="A16">
+        <is>
+          <t xml:space="preserve">30023</t>
+        </is>
+      </c>
+      <c s="5" t="inlineStr" r="B16">
+        <is>
+          <t xml:space="preserve">Deer Lodge, MT        </t>
+        </is>
+      </c>
+      <c s="8" r="C16">
+        <v>7</v>
+      </c>
+      <c s="7" r="D16">
+        <v>0.0744668973986826</v>
+      </c>
+      <c s="7" r="E16">
+        <v>0.110863290474941</v>
+      </c>
+      <c s="7" r="F16">
+        <v>0.115313258170401</v>
+      </c>
+      <c s="7" r="G16">
+        <v>0.147478736330498</v>
+      </c>
+      <c s="3" t="str" r="H16"/>
+      <c s="7" r="I16">
+        <v>0.175575967474778</v>
+      </c>
+      <c s="7" r="J16">
+        <v>0.225067750677507</v>
+      </c>
+    </row>
+    <row r="17" ht="20.65" customHeight="0">
+      <c s="5" t="inlineStr" r="A17">
+        <is>
+          <t xml:space="preserve">30025</t>
+        </is>
+      </c>
+      <c s="5" t="inlineStr" r="B17">
+        <is>
+          <t xml:space="preserve">Fallon, MT        </t>
+        </is>
+      </c>
+      <c s="8" r="C17">
+        <v>9</v>
+      </c>
+      <c s="7" r="D17">
+        <v>0.0555555555555556</v>
+      </c>
+      <c s="7" r="E17">
+        <v>0.0912961210974456</v>
+      </c>
+      <c s="7" r="F17">
+        <v>0.106308991554893</v>
+      </c>
+      <c s="7" r="G17">
+        <v>0.144186046511628</v>
+      </c>
+      <c s="3" t="str" r="H17"/>
+      <c s="7" r="I17">
+        <v>0.164654756156446</v>
+      </c>
+      <c s="7" r="J17">
+        <v>0.192122958693564</v>
+      </c>
+    </row>
+    <row r="18" ht="20.6" customHeight="0">
+      <c s="5" t="inlineStr" r="A18">
+        <is>
+          <t xml:space="preserve">30027</t>
+        </is>
+      </c>
+      <c s="5" t="inlineStr" r="B18">
+        <is>
+          <t xml:space="preserve">Fergus, MT        </t>
+        </is>
+      </c>
+      <c s="8" r="C18">
+        <v>7</v>
+      </c>
+      <c s="7" r="D18">
+        <v>0.0856662933930571</v>
+      </c>
+      <c s="7" r="E18">
+        <v>0.13994751968012</v>
+      </c>
+      <c s="7" r="F18">
+        <v>0.144651786803269</v>
+      </c>
+      <c s="7" r="G18">
+        <v>0.190952955367913</v>
+      </c>
+      <c s="3" t="str" r="H18"/>
+      <c s="7" r="I18">
+        <v>0.231892523364486</v>
+      </c>
+      <c s="7" r="J18">
+        <v>0.263898662913441</v>
+      </c>
+    </row>
+    <row r="19" ht="20.65" customHeight="0">
+      <c s="5" t="inlineStr" r="A19">
+        <is>
+          <t xml:space="preserve">30029</t>
+        </is>
+      </c>
+      <c s="5" t="inlineStr" r="B19">
+        <is>
+          <t xml:space="preserve">Flathead, MT        </t>
+        </is>
+      </c>
+      <c s="8" r="C19">
+        <v>5</v>
+      </c>
+      <c s="7" r="D19">
+        <v>0.0830283731761798</v>
+      </c>
+      <c s="7" r="E19">
+        <v>0.154135461294437</v>
+      </c>
+      <c s="7" r="F19">
+        <v>0.171879846965154</v>
+      </c>
+      <c s="7" r="G19">
+        <v>0.224319207218821</v>
+      </c>
+      <c s="3" t="str" r="H19"/>
+      <c s="7" r="I19">
+        <v>0.287560839384026</v>
+      </c>
+      <c s="7" r="J19">
+        <v>0.336496617545382</v>
+      </c>
+    </row>
+    <row r="20" ht="20.6" customHeight="0">
+      <c s="5" t="inlineStr" r="A20">
+        <is>
+          <t xml:space="preserve">30031</t>
+        </is>
+      </c>
+      <c s="5" t="inlineStr" r="B20">
+        <is>
+          <t xml:space="preserve">Gallatin, MT        </t>
+        </is>
+      </c>
+      <c s="8" r="C20">
+        <v>5</v>
+      </c>
+      <c s="7" r="D20">
+        <v>0.207589135269933</v>
+      </c>
+      <c s="7" r="E20">
+        <v>0.304683884106267</v>
+      </c>
+      <c s="7" r="F20">
+        <v>0.337990162590518</v>
+      </c>
+      <c s="7" r="G20">
+        <v>0.410098613479647</v>
+      </c>
+      <c s="3" t="str" r="H20"/>
+      <c s="7" r="I20">
+        <v>0.454167034129994</v>
+      </c>
+      <c s="7" r="J20">
+        <v>0.522137201410606</v>
+      </c>
+    </row>
+    <row r="21" ht="20.65" customHeight="0">
+      <c s="5" t="inlineStr" r="A21">
+        <is>
+          <t xml:space="preserve">30033</t>
+        </is>
+      </c>
+      <c s="5" t="inlineStr" r="B21">
+        <is>
+          <t xml:space="preserve">Garfield, MT        </t>
+        </is>
+      </c>
+      <c s="8" r="C21">
+        <v>9</v>
+      </c>
+      <c s="7" r="D21">
+        <v>0.0539374325782093</v>
+      </c>
+      <c s="7" r="E21">
+        <v>0.111801242236025</v>
+      </c>
+      <c s="7" r="F21">
+        <v>0.087719298245614</v>
+      </c>
+      <c s="7" r="G21">
+        <v>0.167623421354765</v>
+      </c>
+      <c s="3" t="str" r="H21"/>
+      <c s="7" r="I21">
+        <v>0.13947696139477</v>
+      </c>
+      <c s="7" r="J21">
+        <v>0.214925373134328</v>
+      </c>
+    </row>
+    <row r="22" ht="20.6" customHeight="0">
+      <c s="5" t="inlineStr" r="A22">
+        <is>
+          <t xml:space="preserve">30035</t>
+        </is>
+      </c>
+      <c s="5" t="inlineStr" r="B22">
+        <is>
+          <t xml:space="preserve">Glacier, MT        </t>
+        </is>
+      </c>
+      <c s="8" r="C22">
+        <v>7</v>
+      </c>
+      <c s="7" r="D22">
+        <v>0.0698430922311519</v>
+      </c>
+      <c s="7" r="E22">
+        <v>0.131774707757705</v>
+      </c>
+      <c s="7" r="F22">
+        <v>0.145250560957367</v>
+      </c>
+      <c s="7" r="G22">
+        <v>0.164973587972369</v>
+      </c>
+      <c s="3" t="str" r="H22"/>
+      <c s="7" r="I22">
+        <v>0.188621219887237</v>
+      </c>
+      <c s="7" r="J22">
+        <v>0.217071724955542</v>
+      </c>
+    </row>
+    <row r="23" ht="20.65" customHeight="0">
+      <c s="5" t="inlineStr" r="A23">
+        <is>
+          <t xml:space="preserve">30037</t>
+        </is>
+      </c>
+      <c s="5" t="inlineStr" r="B23">
+        <is>
+          <t xml:space="preserve">Golden Valley, MT        </t>
+        </is>
+      </c>
+      <c s="8" r="C23">
+        <v>3</v>
+      </c>
+      <c s="7" r="D23">
+        <v>0.114661654135338</v>
+      </c>
+      <c s="7" r="E23">
+        <v>0.135566188197767</v>
+      </c>
+      <c s="7" r="F23">
+        <v>0.146864686468647</v>
+      </c>
+      <c s="7" r="G23">
+        <v>0.161931818181818</v>
+      </c>
+      <c s="3" t="str" r="H23"/>
+      <c s="7" r="I23">
+        <v>0.248106060606061</v>
+      </c>
+      <c s="7" r="J23">
+        <v>0.192675159235669</v>
+      </c>
+    </row>
+    <row r="24" ht="20.6" customHeight="0">
+      <c s="5" t="inlineStr" r="A24">
+        <is>
+          <t xml:space="preserve">30039</t>
+        </is>
+      </c>
+      <c s="5" t="inlineStr" r="B24">
+        <is>
+          <t xml:space="preserve">Granite, MT        </t>
+        </is>
+      </c>
+      <c s="8" r="C24">
+        <v>8</v>
+      </c>
+      <c s="7" r="D24">
+        <v>0.0536912751677852</v>
+      </c>
+      <c s="7" r="E24">
+        <v>0.144997004194128</v>
+      </c>
+      <c s="7" r="F24">
+        <v>0.168883747831116</v>
+      </c>
+      <c s="7" r="G24">
+        <v>0.220824949698189</v>
+      </c>
+      <c s="3" t="str" r="H24"/>
+      <c s="7" r="I24">
+        <v>0.272464962901896</v>
+      </c>
+      <c s="7" r="J24">
+        <v>0.327704061117813</v>
+      </c>
+    </row>
+    <row r="25" ht="20.65" customHeight="0">
+      <c s="5" t="inlineStr" r="A25">
+        <is>
+          <t xml:space="preserve">30041</t>
+        </is>
+      </c>
+      <c s="5" t="inlineStr" r="B25">
+        <is>
+          <t xml:space="preserve">Hill, MT        </t>
+        </is>
+      </c>
+      <c s="8" r="C25">
+        <v>7</v>
+      </c>
+      <c s="7" r="D25">
+        <v>0.0885207100591716</v>
+      </c>
+      <c s="7" r="E25">
+        <v>0.169270298047276</v>
+      </c>
+      <c s="7" r="F25">
+        <v>0.181390535327877</v>
+      </c>
+      <c s="7" r="G25">
+        <v>0.200079752766424</v>
+      </c>
+      <c s="3" t="str" r="H25"/>
+      <c s="7" r="I25">
+        <v>0.206814580031696</v>
+      </c>
+      <c s="7" r="J25">
+        <v>0.260787806809185</v>
+      </c>
+    </row>
+    <row r="26" ht="20.6" customHeight="0">
+      <c s="5" t="inlineStr" r="A26">
+        <is>
+          <t xml:space="preserve">30043</t>
+        </is>
+      </c>
+      <c s="5" t="inlineStr" r="B26">
+        <is>
+          <t xml:space="preserve">Jefferson, MT        </t>
+        </is>
+      </c>
+      <c s="8" r="C26">
+        <v>9</v>
+      </c>
+      <c s="7" r="D26">
+        <v>0.0778488153441143</v>
+      </c>
+      <c s="7" r="E26">
+        <v>0.178186274509804</v>
+      </c>
+      <c s="7" r="F26">
+        <v>0.208211714341312</v>
+      </c>
+      <c s="7" r="G26">
+        <v>0.276611582551734</v>
+      </c>
+      <c s="3" t="str" r="H26"/>
+      <c s="7" r="I26">
+        <v>0.341388616290481</v>
+      </c>
+      <c s="7" r="J26">
+        <v>0.357778284671533</v>
+      </c>
+    </row>
+    <row r="27" ht="20.65" customHeight="0">
+      <c s="5" t="inlineStr" r="A27">
+        <is>
+          <t xml:space="preserve">30045</t>
+        </is>
+      </c>
+      <c s="5" t="inlineStr" r="B27">
+        <is>
+          <t xml:space="preserve">Judith Basin, MT        </t>
+        </is>
+      </c>
+      <c s="8" r="C27">
+        <v>8</v>
+      </c>
+      <c s="7" r="D27">
+        <v>0.0912596401028278</v>
+      </c>
+      <c s="7" r="E27">
+        <v>0.160933660933661</v>
+      </c>
+      <c s="7" r="F27">
+        <v>0.19772583701832</v>
+      </c>
+      <c s="7" r="G27">
+        <v>0.235736677115987</v>
+      </c>
+      <c s="3" t="str" r="H27"/>
+      <c s="7" r="I27">
+        <v>0.301992528019925</v>
+      </c>
+      <c s="7" r="J27">
+        <v>0.232067510548523</v>
+      </c>
+    </row>
+    <row r="28" ht="20.6" customHeight="0">
+      <c s="5" t="inlineStr" r="A28">
+        <is>
+          <t xml:space="preserve">30047</t>
+        </is>
+      </c>
+      <c s="5" t="inlineStr" r="B28">
+        <is>
+          <t xml:space="preserve">Lake, MT        </t>
+        </is>
+      </c>
+      <c s="8" r="C28">
+        <v>6</v>
+      </c>
+      <c s="7" r="D28">
+        <v>0.0887299196787149</v>
+      </c>
+      <c s="7" r="E28">
+        <v>0.144667753032772</v>
+      </c>
+      <c s="7" r="F28">
+        <v>0.156813703198424</v>
+      </c>
+      <c s="7" r="G28">
+        <v>0.221907960638737</v>
+      </c>
+      <c s="3" t="str" r="H28"/>
+      <c s="7" r="I28">
+        <v>0.258599124452783</v>
+      </c>
+      <c s="7" r="J28">
+        <v>0.325463114180393</v>
+      </c>
+    </row>
+    <row r="29" ht="20.65" customHeight="0">
+      <c s="5" t="inlineStr" r="A29">
+        <is>
+          <t xml:space="preserve">30049</t>
+        </is>
+      </c>
+      <c s="5" t="inlineStr" r="B29">
+        <is>
+          <t xml:space="preserve">Lewis and Clark, MT        </t>
+        </is>
+      </c>
+      <c s="8" r="C29">
+        <v>5</v>
+      </c>
+      <c s="7" r="D29">
+        <v>0.162381139931357</v>
+      </c>
+      <c s="7" r="E29">
+        <v>0.238950165043072</v>
+      </c>
+      <c s="7" r="F29">
+        <v>0.278442225956311</v>
+      </c>
+      <c s="7" r="G29">
+        <v>0.315808122104116</v>
+      </c>
+      <c s="3" t="str" r="H29"/>
+      <c s="7" r="I29">
+        <v>0.375332416322788</v>
+      </c>
+      <c s="7" r="J29">
+        <v>0.422663975782038</v>
+      </c>
+    </row>
+    <row r="30" ht="20.6" customHeight="0">
+      <c s="5" t="inlineStr" r="A30">
+        <is>
+          <t xml:space="preserve">30051</t>
+        </is>
+      </c>
+      <c s="5" t="inlineStr" r="B30">
+        <is>
+          <t xml:space="preserve">Liberty, MT        </t>
+        </is>
+      </c>
+      <c s="8" r="C30">
+        <v>9</v>
+      </c>
+      <c s="7" r="D30">
+        <v>0.106655290102389</v>
+      </c>
+      <c s="7" r="E30">
+        <v>0.141599413059428</v>
+      </c>
+      <c s="7" r="F30">
+        <v>0.168946648426813</v>
+      </c>
+      <c s="7" r="G30">
+        <v>0.176190476190476</v>
+      </c>
+      <c s="3" t="str" r="H30"/>
+      <c s="7" r="I30">
+        <v>0.202524038461538</v>
+      </c>
+      <c s="7" r="J30">
+        <v>0.226950354609929</v>
+      </c>
+    </row>
+    <row r="31" ht="20.65" customHeight="0">
+      <c s="5" t="inlineStr" r="A31">
+        <is>
+          <t xml:space="preserve">30053</t>
+        </is>
+      </c>
+      <c s="5" t="inlineStr" r="B31">
+        <is>
+          <t xml:space="preserve">Lincoln, MT        </t>
+        </is>
+      </c>
+      <c s="8" r="C31">
+        <v>7</v>
+      </c>
+      <c s="7" r="D31">
+        <v>0.0663886755184901</v>
+      </c>
+      <c s="7" r="E31">
+        <v>0.114129885870114</v>
+      </c>
+      <c s="7" r="F31">
+        <v>0.125423426635764</v>
+      </c>
+      <c s="7" r="G31">
+        <v>0.136685116851169</v>
+      </c>
+      <c s="3" t="str" r="H31"/>
+      <c s="7" r="I31">
+        <v>0.182838867719107</v>
+      </c>
+      <c s="7" r="J31">
+        <v>0.191141576588452</v>
+      </c>
+    </row>
+    <row r="32" ht="20.6" customHeight="0">
+      <c s="5" t="inlineStr" r="A32">
+        <is>
+          <t xml:space="preserve">30055</t>
+        </is>
+      </c>
+      <c s="5" t="inlineStr" r="B32">
+        <is>
+          <t xml:space="preserve">McCone, MT        </t>
+        </is>
+      </c>
+      <c s="8" r="C32">
+        <v>9</v>
+      </c>
+      <c s="7" r="D32">
+        <v>0.0511475409836066</v>
+      </c>
+      <c s="7" r="E32">
+        <v>0.124178712220762</v>
+      </c>
+      <c s="7" r="F32">
+        <v>0.142857142857143</v>
+      </c>
+      <c s="7" r="G32">
+        <v>0.163755458515284</v>
+      </c>
+      <c s="3" t="str" r="H32"/>
+      <c s="7" r="I32">
+        <v>0.197996918335901</v>
+      </c>
+      <c s="7" r="J32">
+        <v>0.1818856718634</v>
+      </c>
+    </row>
+    <row r="33" ht="20.65" customHeight="0">
+      <c s="5" t="inlineStr" r="A33">
+        <is>
+          <t xml:space="preserve">30057</t>
+        </is>
+      </c>
+      <c s="5" t="inlineStr" r="B33">
+        <is>
+          <t xml:space="preserve">Madison, MT        </t>
+        </is>
+      </c>
+      <c s="8" r="C33">
+        <v>9</v>
+      </c>
+      <c s="7" r="D33">
+        <v>0.0945809491753618</v>
+      </c>
+      <c s="7" r="E33">
+        <v>0.154974123059229</v>
+      </c>
+      <c s="7" r="F33">
+        <v>0.196677253848033</v>
+      </c>
+      <c s="7" r="G33">
+        <v>0.25520728008089</v>
+      </c>
+      <c s="3" t="str" r="H33"/>
+      <c s="7" r="I33">
+        <v>0.316029759891782</v>
+      </c>
+      <c s="7" r="J33">
+        <v>0.319193117769208</v>
+      </c>
+    </row>
+    <row r="34" ht="20.6" customHeight="0">
+      <c s="5" t="inlineStr" r="A34">
+        <is>
+          <t xml:space="preserve">30059</t>
+        </is>
+      </c>
+      <c s="5" t="inlineStr" r="B34">
+        <is>
+          <t xml:space="preserve">Meagher, MT        </t>
+        </is>
+      </c>
+      <c s="8" r="C34">
+        <v>9</v>
+      </c>
+      <c s="7" r="D34">
+        <v>0.0914479254868755</v>
+      </c>
+      <c s="7" r="E34">
+        <v>0.132430398796087</v>
+      </c>
+      <c s="7" r="F34">
+        <v>0.144012944983819</v>
+      </c>
+      <c s="7" r="G34">
+        <v>0.187406296851574</v>
+      </c>
+      <c s="3" t="str" r="H34"/>
+      <c s="7" r="I34">
+        <v>0.165236051502146</v>
+      </c>
+      <c s="7" r="J34">
+        <v>0.29572529782761</v>
+      </c>
+    </row>
+    <row r="35" ht="20.65" customHeight="0">
+      <c s="5" t="inlineStr" r="A35">
+        <is>
+          <t xml:space="preserve">30061</t>
+        </is>
+      </c>
+      <c s="5" t="inlineStr" r="B35">
+        <is>
+          <t xml:space="preserve">Mineral, MT        </t>
+        </is>
+      </c>
+      <c s="8" r="C35">
+        <v>8</v>
+      </c>
+      <c s="7" r="D35">
+        <v>0.0845864661654135</v>
+      </c>
+      <c s="7" r="E35">
+        <v>0.119904076738609</v>
+      </c>
+      <c s="7" r="F35">
+        <v>0.131087847064178</v>
+      </c>
+      <c s="7" r="G35">
+        <v>0.123374210330732</v>
+      </c>
+      <c s="3" t="str" r="H35"/>
+      <c s="7" r="I35">
+        <v>0.135267275097784</v>
+      </c>
+      <c s="7" r="J35">
+        <v>0.250511546331482</v>
+      </c>
+    </row>
+    <row r="36" ht="20.6" customHeight="0">
+      <c s="5" t="inlineStr" r="A36">
+        <is>
+          <t xml:space="preserve">30063</t>
+        </is>
+      </c>
+      <c s="5" t="inlineStr" r="B36">
+        <is>
+          <t xml:space="preserve">Missoula, MT        </t>
+        </is>
+      </c>
+      <c s="8" r="C36">
+        <v>3</v>
+      </c>
+      <c s="7" r="D36">
+        <v>0.185565914005175</v>
+      </c>
+      <c s="7" r="E36">
+        <v>0.239570074954038</v>
+      </c>
+      <c s="7" r="F36">
+        <v>0.277198582295272</v>
+      </c>
+      <c s="7" r="G36">
+        <v>0.328004317177645</v>
+      </c>
+      <c s="3" t="str" r="H36"/>
+      <c s="7" r="I36">
+        <v>0.38997510044706</v>
+      </c>
+      <c s="7" r="J36">
+        <v>0.442165791814389</v>
+      </c>
+    </row>
+    <row r="37" ht="20.65" customHeight="0">
+      <c s="5" t="inlineStr" r="A37">
+        <is>
+          <t xml:space="preserve">30065</t>
+        </is>
+      </c>
+      <c s="5" t="inlineStr" r="B37">
+        <is>
+          <t xml:space="preserve">Musselshell, MT        </t>
+        </is>
+      </c>
+      <c s="8" r="C37">
+        <v>8</v>
+      </c>
+      <c s="7" r="D37">
+        <v>0.0602947744528807</v>
+      </c>
+      <c s="7" r="E37">
+        <v>0.102536231884058</v>
+      </c>
+      <c s="7" r="F37">
+        <v>0.114295824486907</v>
+      </c>
+      <c s="7" r="G37">
+        <v>0.166928638792832</v>
+      </c>
+      <c s="3" t="str" r="H37"/>
+      <c s="7" r="I37">
+        <v>0.133035714285714</v>
+      </c>
+      <c s="7" r="J37">
+        <v>0.208528198074278</v>
+      </c>
+    </row>
+    <row r="38" ht="20.6" customHeight="0">
+      <c s="5" t="inlineStr" r="A38">
+        <is>
+          <t xml:space="preserve">30067</t>
+        </is>
+      </c>
+      <c s="5" t="inlineStr" r="B38">
+        <is>
+          <t xml:space="preserve">Park, MT        </t>
+        </is>
+      </c>
+      <c s="8" r="C38">
+        <v>7</v>
+      </c>
+      <c s="7" r="D38">
+        <v>0.0756452091367547</v>
+      </c>
+      <c s="7" r="E38">
+        <v>0.137164272329794</v>
+      </c>
+      <c s="7" r="F38">
+        <v>0.193005053007035</v>
+      </c>
+      <c s="7" r="G38">
+        <v>0.230818124035231</v>
+      </c>
+      <c s="3" t="str" r="H38"/>
+      <c s="7" r="I38">
+        <v>0.314018691588785</v>
+      </c>
+      <c s="7" r="J38">
+        <v>0.332930239588844</v>
+      </c>
+    </row>
+    <row r="39" ht="20.65" customHeight="0">
+      <c s="5" t="inlineStr" r="A39">
+        <is>
+          <t xml:space="preserve">30069</t>
+        </is>
+      </c>
+      <c s="5" t="inlineStr" r="B39">
+        <is>
+          <t xml:space="preserve">Petroleum, MT        </t>
+        </is>
+      </c>
+      <c s="8" r="C39">
+        <v>9</v>
+      </c>
+      <c s="7" r="D39">
+        <v>0.126943005181347</v>
+      </c>
+      <c s="7" r="E39">
+        <v>0.177083333333333</v>
+      </c>
+      <c s="7" r="F39">
+        <v>0.175074183976261</v>
+      </c>
+      <c s="7" r="G39">
+        <v>0.174174174174174</v>
+      </c>
+      <c s="3" t="str" r="H39"/>
+      <c s="7" r="I39">
+        <v>0.155172413793103</v>
+      </c>
+      <c s="7" r="J39">
+        <v>0.283132530120482</v>
+      </c>
+    </row>
+    <row r="40" ht="20.6" customHeight="0">
+      <c s="5" t="inlineStr" r="A40">
+        <is>
+          <t xml:space="preserve">30071</t>
+        </is>
+      </c>
+      <c s="5" t="inlineStr" r="B40">
+        <is>
+          <t xml:space="preserve">Phillips, MT        </t>
+        </is>
+      </c>
+      <c s="8" r="C40">
+        <v>9</v>
+      </c>
+      <c s="7" r="D40">
+        <v>0.0696887686062246</v>
+      </c>
+      <c s="7" r="E40">
+        <v>0.0786224821312541</v>
+      </c>
+      <c s="7" r="F40">
+        <v>0.130977764240024</v>
+      </c>
+      <c s="7" r="G40">
+        <v>0.170535138620245</v>
+      </c>
+      <c s="3" t="str" r="H40"/>
+      <c s="7" r="I40">
+        <v>0.164441549983719</v>
+      </c>
+      <c s="7" r="J40">
+        <v>0.190444591904446</v>
+      </c>
+    </row>
+    <row r="41" ht="20.65" customHeight="0">
+      <c s="5" t="inlineStr" r="A41">
+        <is>
+          <t xml:space="preserve">30073</t>
+        </is>
+      </c>
+      <c s="5" t="inlineStr" r="B41">
+        <is>
+          <t xml:space="preserve">Pondera, MT        </t>
+        </is>
+      </c>
+      <c s="8" r="C41">
+        <v>7</v>
+      </c>
+      <c s="7" r="D41">
+        <v>0.0937233740414655</v>
+      </c>
+      <c s="7" r="E41">
+        <v>0.154341664519454</v>
+      </c>
+      <c s="7" r="F41">
+        <v>0.150442477876106</v>
+      </c>
+      <c s="7" r="G41">
+        <v>0.197663096397274</v>
+      </c>
+      <c s="3" t="str" r="H41"/>
+      <c s="7" r="I41">
+        <v>0.202471482889734</v>
+      </c>
+      <c s="7" r="J41">
+        <v>0.226907141116256</v>
+      </c>
+    </row>
+    <row r="42" ht="20.6" customHeight="0">
+      <c s="5" t="inlineStr" r="A42">
+        <is>
+          <t xml:space="preserve">30075</t>
+        </is>
+      </c>
+      <c s="5" t="inlineStr" r="B42">
+        <is>
+          <t xml:space="preserve">Powder River, MT        </t>
+        </is>
+      </c>
+      <c s="8" r="C42">
+        <v>9</v>
+      </c>
+      <c s="7" r="D42">
+        <v>0.0592747559274756</v>
+      </c>
+      <c s="7" r="E42">
+        <v>0.14105123087159</v>
+      </c>
+      <c s="7" r="F42">
+        <v>0.153120464441219</v>
+      </c>
+      <c s="7" r="G42">
+        <v>0.159591194968553</v>
+      </c>
+      <c s="3" t="str" r="H42"/>
+      <c s="7" r="I42">
+        <v>0.1578073089701</v>
+      </c>
+      <c s="7" r="J42">
+        <v>0.250385208012327</v>
+      </c>
+    </row>
+    <row r="43" ht="20.65" customHeight="0">
+      <c s="5" t="inlineStr" r="A43">
+        <is>
+          <t xml:space="preserve">30077</t>
+        </is>
+      </c>
+      <c s="5" t="inlineStr" r="B43">
+        <is>
+          <t xml:space="preserve">Powell, MT        </t>
+        </is>
+      </c>
+      <c s="8" r="C43">
+        <v>6</v>
+      </c>
+      <c s="7" r="D43">
+        <v>0.0690754516471838</v>
+      </c>
+      <c s="7" r="E43">
+        <v>0.146393210749646</v>
+      </c>
+      <c s="7" r="F43">
+        <v>0.166219839142091</v>
+      </c>
+      <c s="7" r="G43">
+        <v>0.130639466457434</v>
+      </c>
+      <c s="3" t="str" r="H43"/>
+      <c s="7" r="I43">
+        <v>0.200333580429948</v>
+      </c>
+      <c s="7" r="J43">
+        <v>0.187857538291198</v>
+      </c>
+    </row>
+    <row r="44" ht="20.6" customHeight="0">
+      <c s="5" t="inlineStr" r="A44">
+        <is>
+          <t xml:space="preserve">30079</t>
+        </is>
+      </c>
+      <c s="5" t="inlineStr" r="B44">
+        <is>
+          <t xml:space="preserve">Prairie, MT        </t>
+        </is>
+      </c>
+      <c s="8" r="C44">
+        <v>9</v>
+      </c>
+      <c s="7" r="D44">
+        <v>0.0553359683794466</v>
+      </c>
+      <c s="7" r="E44">
+        <v>0.0797918473547268</v>
+      </c>
+      <c s="7" r="F44">
+        <v>0.131790744466801</v>
+      </c>
+      <c s="7" r="G44">
+        <v>0.147864184008762</v>
+      </c>
+      <c s="3" t="str" r="H44"/>
+      <c s="7" r="I44">
+        <v>0.176470588235294</v>
+      </c>
+      <c s="7" r="J44">
+        <v>0.256578947368421</v>
+      </c>
+    </row>
+    <row r="45" ht="20.65" customHeight="0">
+      <c s="5" t="inlineStr" r="A45">
+        <is>
+          <t xml:space="preserve">30081</t>
+        </is>
+      </c>
+      <c s="5" t="inlineStr" r="B45">
+        <is>
+          <t xml:space="preserve">Ravalli, MT        </t>
+        </is>
+      </c>
+      <c s="8" r="C45">
+        <v>6</v>
+      </c>
+      <c s="7" r="D45">
+        <v>0.105797967722654</v>
+      </c>
+      <c s="7" r="E45">
+        <v>0.17986762673649</v>
+      </c>
+      <c s="7" r="F45">
+        <v>0.182058682058682</v>
+      </c>
+      <c s="7" r="G45">
+        <v>0.225035619784246</v>
+      </c>
+      <c s="3" t="str" r="H45"/>
+      <c s="7" r="I45">
+        <v>0.24732256620407</v>
+      </c>
+      <c s="7" r="J45">
+        <v>0.28382747681796</v>
+      </c>
+    </row>
+    <row r="46" ht="20.6" customHeight="0">
+      <c s="5" t="inlineStr" r="A46">
+        <is>
+          <t xml:space="preserve">30083</t>
+        </is>
+      </c>
+      <c s="5" t="inlineStr" r="B46">
+        <is>
+          <t xml:space="preserve">Richland, MT        </t>
+        </is>
+      </c>
+      <c s="8" r="C46">
+        <v>7</v>
+      </c>
+      <c s="7" r="D46">
+        <v>0.0629397223806807</v>
+      </c>
+      <c s="7" r="E46">
+        <v>0.119389451413027</v>
+      </c>
+      <c s="7" r="F46">
+        <v>0.134034560480841</v>
+      </c>
+      <c s="7" r="G46">
+        <v>0.171928727727415</v>
+      </c>
+      <c s="3" t="str" r="H46"/>
+      <c s="7" r="I46">
+        <v>0.167371336929582</v>
+      </c>
+      <c s="7" r="J46">
+        <v>0.162423760275789</v>
+      </c>
+    </row>
+    <row r="47" ht="20.65" customHeight="0">
+      <c s="5" t="inlineStr" r="A47">
+        <is>
+          <t xml:space="preserve">30085</t>
+        </is>
+      </c>
+      <c s="5" t="inlineStr" r="B47">
+        <is>
+          <t xml:space="preserve">Roosevelt, MT        </t>
+        </is>
+      </c>
+      <c s="8" r="C47">
+        <v>7</v>
+      </c>
+      <c s="7" r="D47">
+        <v>0.0543835881556029</v>
+      </c>
+      <c s="7" r="E47">
+        <v>0.118950540684276</v>
+      </c>
+      <c s="7" r="F47">
+        <v>0.113159567705022</v>
+      </c>
+      <c s="7" r="G47">
+        <v>0.156214180448665</v>
+      </c>
+      <c s="3" t="str" r="H47"/>
+      <c s="7" r="I47">
+        <v>0.15526832460733</v>
+      </c>
+      <c s="7" r="J47">
+        <v>0.19422150882825</v>
+      </c>
+    </row>
+    <row r="48" ht="20.6" customHeight="0">
+      <c s="5" t="inlineStr" r="A48">
+        <is>
+          <t xml:space="preserve">30087</t>
+        </is>
+      </c>
+      <c s="5" t="inlineStr" r="B48">
+        <is>
+          <t xml:space="preserve">Rosebud, MT        </t>
+        </is>
+      </c>
+      <c s="8" r="C48">
+        <v>9</v>
+      </c>
+      <c s="7" r="D48">
+        <v>0.0696100547856913</v>
+      </c>
+      <c s="7" r="E48">
+        <v>0.127927927927928</v>
+      </c>
+      <c s="7" r="F48">
+        <v>0.134125636672326</v>
+      </c>
+      <c s="7" r="G48">
+        <v>0.176077936135667</v>
+      </c>
+      <c s="3" t="str" r="H48"/>
+      <c s="7" r="I48">
+        <v>0.2011424614852</v>
+      </c>
+      <c s="7" r="J48">
+        <v>0.19310867095797</v>
+      </c>
+    </row>
+    <row r="49" ht="20.65" customHeight="0">
+      <c s="5" t="inlineStr" r="A49">
+        <is>
+          <t xml:space="preserve">30089</t>
+        </is>
+      </c>
+      <c s="5" t="inlineStr" r="B49">
+        <is>
+          <t xml:space="preserve">Sanders, MT        </t>
+        </is>
+      </c>
+      <c s="8" r="C49">
+        <v>8</v>
+      </c>
+      <c s="7" r="D49">
+        <v>0.0845588235294118</v>
+      </c>
+      <c s="7" r="E49">
+        <v>0.133232112355286</v>
+      </c>
+      <c s="7" r="F49">
+        <v>0.147751229796205</v>
+      </c>
+      <c s="7" r="G49">
+        <v>0.155481911074289</v>
+      </c>
+      <c s="3" t="str" r="H49"/>
+      <c s="7" r="I49">
+        <v>0.169148936170213</v>
+      </c>
+      <c s="7" r="J49">
+        <v>0.189751716851558</v>
+      </c>
+    </row>
+    <row r="50" ht="20.6" customHeight="0">
+      <c s="5" t="inlineStr" r="A50">
+        <is>
+          <t xml:space="preserve">30091</t>
+        </is>
+      </c>
+      <c s="5" t="inlineStr" r="B50">
+        <is>
+          <t xml:space="preserve">Sheridan, MT        </t>
+        </is>
+      </c>
+      <c s="8" r="C50">
+        <v>9</v>
+      </c>
+      <c s="7" r="D50">
+        <v>0.0837648492232714</v>
+      </c>
+      <c s="7" r="E50">
+        <v>0.128319904506118</v>
+      </c>
+      <c s="7" r="F50">
+        <v>0.116985718626557</v>
+      </c>
+      <c s="7" r="G50">
+        <v>0.183896281132719</v>
+      </c>
+      <c s="3" t="str" r="H50"/>
+      <c s="7" r="I50">
+        <v>0.222932481022773</v>
+      </c>
+      <c s="7" r="J50">
+        <v>0.256985438803621</v>
+      </c>
+    </row>
+    <row r="51" ht="20.65" customHeight="0">
+      <c s="5" t="inlineStr" r="A51">
+        <is>
+          <t xml:space="preserve">30093</t>
+        </is>
+      </c>
+      <c s="5" t="inlineStr" r="B51">
+        <is>
+          <t xml:space="preserve">Silver Bow, MT        </t>
+        </is>
+      </c>
+      <c s="8" r="C51">
+        <v>5</v>
+      </c>
+      <c s="7" r="D51">
+        <v>0.0890931741054169</v>
+      </c>
+      <c s="7" r="E51">
+        <v>0.141935202546549</v>
+      </c>
+      <c s="7" r="F51">
+        <v>0.179146412166079</v>
+      </c>
+      <c s="7" r="G51">
+        <v>0.216997878512361</v>
+      </c>
+      <c s="3" t="str" r="H51"/>
+      <c s="7" r="I51">
+        <v>0.220910840282232</v>
+      </c>
+      <c s="7" r="J51">
+        <v>0.279701120797011</v>
+      </c>
+    </row>
+    <row r="52" ht="20.6" customHeight="0">
+      <c s="5" t="inlineStr" r="A52">
+        <is>
+          <t xml:space="preserve">30095</t>
+        </is>
+      </c>
+      <c s="5" t="inlineStr" r="B52">
+        <is>
+          <t xml:space="preserve">Stillwater, MT        </t>
+        </is>
+      </c>
+      <c s="8" r="C52">
+        <v>8</v>
+      </c>
+      <c s="7" r="D52">
+        <v>0.0706051873198847</v>
+      </c>
+      <c s="7" r="E52">
+        <v>0.123299319727891</v>
+      </c>
+      <c s="7" r="F52">
+        <v>0.169315825846579</v>
+      </c>
+      <c s="7" r="G52">
+        <v>0.178444602272727</v>
+      </c>
+      <c s="3" t="str" r="H52"/>
+      <c s="7" r="I52">
+        <v>0.220292504570384</v>
+      </c>
+      <c s="7" r="J52">
+        <v>0.279521441889372</v>
+      </c>
+    </row>
+    <row r="53" ht="20.65" customHeight="0">
+      <c s="5" t="inlineStr" r="A53">
+        <is>
+          <t xml:space="preserve">30097</t>
+        </is>
+      </c>
+      <c s="5" t="inlineStr" r="B53">
+        <is>
+          <t xml:space="preserve">Sweet Grass, MT        </t>
+        </is>
+      </c>
+      <c s="8" r="C53">
+        <v>9</v>
+      </c>
+      <c s="7" r="D53">
+        <v>0.0859630032644178</v>
+      </c>
+      <c s="7" r="E53">
+        <v>0.139836617011052</v>
+      </c>
+      <c s="7" r="F53">
+        <v>0.199816681943171</v>
+      </c>
+      <c s="7" r="G53">
+        <v>0.235625251306795</v>
+      </c>
+      <c s="3" t="str" r="H53"/>
+      <c s="7" r="I53">
+        <v>0.247110402550817</v>
+      </c>
+      <c s="7" r="J53">
+        <v>0.221105527638191</v>
+      </c>
+    </row>
+    <row r="54" ht="20.6" customHeight="0">
+      <c s="5" t="inlineStr" r="A54">
+        <is>
+          <t xml:space="preserve">30099</t>
+        </is>
+      </c>
+      <c s="5" t="inlineStr" r="B54">
+        <is>
+          <t xml:space="preserve">Teton, MT        </t>
+        </is>
+      </c>
+      <c s="8" r="C54">
+        <v>8</v>
+      </c>
+      <c s="7" r="D54">
+        <v>0.0906232132647227</v>
+      </c>
+      <c s="7" r="E54">
+        <v>0.149321266968326</v>
+      </c>
+      <c s="7" r="F54">
+        <v>0.178361138370952</v>
+      </c>
+      <c s="7" r="G54">
+        <v>0.208149010477299</v>
+      </c>
+      <c s="3" t="str" r="H54"/>
+      <c s="7" r="I54">
+        <v>0.25912067352666</v>
+      </c>
+      <c s="7" r="J54">
+        <v>0.251796837565884</v>
+      </c>
+    </row>
+    <row r="55" ht="20.65" customHeight="0">
+      <c s="5" t="inlineStr" r="A55">
+        <is>
+          <t xml:space="preserve">30101</t>
+        </is>
+      </c>
+      <c s="5" t="inlineStr" r="B55">
+        <is>
+          <t xml:space="preserve">Toole, MT        </t>
+        </is>
+      </c>
+      <c s="8" r="C55">
+        <v>7</v>
+      </c>
+      <c s="7" r="D55">
+        <v>0.107778819119025</v>
+      </c>
+      <c s="7" r="E55">
+        <v>0.141009852216749</v>
+      </c>
+      <c s="7" r="F55">
+        <v>0.140468227424749</v>
+      </c>
+      <c s="7" r="G55">
+        <v>0.16750700280112</v>
+      </c>
+      <c s="3" t="str" r="H55"/>
+      <c s="7" r="I55">
+        <v>0.170212765957447</v>
+      </c>
+      <c s="7" r="J55">
+        <v>0.261491031390135</v>
+      </c>
+    </row>
+    <row r="56" ht="20.6" customHeight="0">
+      <c s="5" t="inlineStr" r="A56">
+        <is>
+          <t xml:space="preserve">30103</t>
+        </is>
+      </c>
+      <c s="5" t="inlineStr" r="B56">
+        <is>
+          <t xml:space="preserve">Treasure, MT        </t>
+        </is>
+      </c>
+      <c s="8" r="C56">
+        <v>8</v>
+      </c>
+      <c s="7" r="D56">
+        <v>0.112522686025408</v>
+      </c>
+      <c s="7" r="E56">
+        <v>0.110378912685338</v>
+      </c>
+      <c s="7" r="F56">
+        <v>0.131810193321617</v>
+      </c>
+      <c s="7" r="G56">
+        <v>0.181975736568458</v>
+      </c>
+      <c s="3" t="str" r="H56"/>
+      <c s="7" r="I56">
+        <v>0.22181146025878</v>
+      </c>
+      <c s="7" r="J56">
+        <v>0.293260473588342</v>
+      </c>
+    </row>
+    <row r="57" ht="20.65" customHeight="0">
+      <c s="5" t="inlineStr" r="A57">
+        <is>
+          <t xml:space="preserve">30105</t>
+        </is>
+      </c>
+      <c s="5" t="inlineStr" r="B57">
+        <is>
+          <t xml:space="preserve">Valley, MT        </t>
+        </is>
+      </c>
+      <c s="8" r="C57">
+        <v>7</v>
+      </c>
+      <c s="7" r="D57">
+        <v>0.071832676152923</v>
+      </c>
+      <c s="7" r="E57">
+        <v>0.129202037351443</v>
+      </c>
+      <c s="7" r="F57">
+        <v>0.132323416681876</v>
+      </c>
+      <c s="7" r="G57">
+        <v>0.15734331150608</v>
+      </c>
+      <c s="3" t="str" r="H57"/>
+      <c s="7" r="I57">
+        <v>0.161987860394537</v>
+      </c>
+      <c s="7" r="J57">
+        <v>0.190736207870458</v>
+      </c>
+    </row>
+    <row r="58" ht="20.6" customHeight="0">
+      <c s="5" t="inlineStr" r="A58">
+        <is>
+          <t xml:space="preserve">30107</t>
+        </is>
+      </c>
+      <c s="5" t="inlineStr" r="B58">
+        <is>
+          <t xml:space="preserve">Wheatland, MT        </t>
+        </is>
+      </c>
+      <c s="8" r="C58">
+        <v>9</v>
+      </c>
+      <c s="7" r="D58">
+        <v>0.0845637583892618</v>
+      </c>
+      <c s="7" r="E58">
+        <v>0.144107744107744</v>
+      </c>
+      <c s="7" r="F58">
+        <v>0.105898123324397</v>
+      </c>
+      <c s="7" r="G58">
+        <v>0.134615384615385</v>
+      </c>
+      <c s="3" t="str" r="H58"/>
+      <c s="7" r="I58">
+        <v>0.189747003994674</v>
+      </c>
+      <c s="7" r="J58">
+        <v>0.178135048231511</v>
+      </c>
+    </row>
+    <row r="59" ht="20.65" customHeight="0">
+      <c s="5" t="inlineStr" r="A59">
+        <is>
+          <t xml:space="preserve">30109</t>
+        </is>
+      </c>
+      <c s="5" t="inlineStr" r="B59">
+        <is>
+          <t xml:space="preserve">Wibaux, MT        </t>
+        </is>
+      </c>
+      <c s="8" r="C59">
+        <v>9</v>
+      </c>
+      <c s="7" r="D59">
+        <v>0.0542244640605296</v>
+      </c>
+      <c s="7" r="E59">
+        <v>0.0839160839160839</v>
+      </c>
+      <c s="7" r="F59">
+        <v>0.108886107634543</v>
+      </c>
+      <c s="7" r="G59">
+        <v>0.159891598915989</v>
+      </c>
+      <c s="3" t="str" r="H59"/>
+      <c s="7" r="I59">
+        <v>0.162518301610542</v>
+      </c>
+      <c s="7" r="J59">
+        <v>0.241666666666667</v>
+      </c>
+    </row>
+    <row r="60" ht="20.6" customHeight="0">
+      <c s="5" t="inlineStr" r="A60">
+        <is>
+          <t xml:space="preserve">30111</t>
+        </is>
+      </c>
+      <c s="5" t="inlineStr" r="B60">
+        <is>
+          <t xml:space="preserve">Yellowstone, MT        </t>
+        </is>
+      </c>
+      <c s="8" r="C60">
+        <v>3</v>
+      </c>
+      <c s="7" r="D60">
+        <v>0.131134441657603</v>
+      </c>
+      <c s="7" r="E60">
+        <v>0.198564515605209</v>
+      </c>
+      <c s="7" r="F60">
+        <v>0.215150433732294</v>
+      </c>
+      <c s="7" r="G60">
+        <v>0.263815844146593</v>
+      </c>
+      <c s="3" t="str" r="H60"/>
+      <c s="7" r="I60">
+        <v>0.288299722183359</v>
+      </c>
+      <c s="7" r="J60">
+        <v>0.336729227307631</v>
+      </c>
+    </row>
+    <row r="61" ht="20.6" customHeight="0">
+      <c s="5" t="inlineStr" r="A61">
+        <is>
+          <t xml:space="preserve">30113</t>
+        </is>
+      </c>
+      <c s="5" t="inlineStr" r="B61">
+        <is>
+          <t xml:space="preserve">Yellowstone National Park, MT        </t>
+        </is>
+      </c>
+      <c s="6" t="str" r="C61"/>
+      <c s="7" r="D61">
+        <v>0</v>
+      </c>
+      <c s="7" r="E61">
+        <v>0.331360946745562</v>
+      </c>
+      <c s="7" r="F61">
+        <v>0</v>
+      </c>
+      <c s="9" t="str" r="G61"/>
+      <c s="3" t="str" r="H61"/>
+      <c s="9" t="str" r="I61"/>
+      <c s="9" t="str" r="J61"/>
+    </row>
+    <row r="62" ht="0.05" customHeight="1"/>
+    <row r="63" ht="5.95" customHeight="1"/>
+    <row r="64" ht="222.75" customHeight="1">
+      <c s="10" t="inlineStr" r="A64">
         <is>
           <r>
             <rPr>
@@ -878,7 +2540,6 @@
         </is>
       </c>
     </row>
-    <row r="15" ht="14.7" customHeight="1"/>
   </sheetData>
   <mergeCells>
     <mergeCell ref="A2:J2"/>
@@ -892,10 +2553,59 @@
     <mergeCell ref="G10:H10"/>
     <mergeCell ref="G11:H11"/>
     <mergeCell ref="G12:H12"/>
-    <mergeCell ref="A14:G14"/>
+    <mergeCell ref="G13:H13"/>
+    <mergeCell ref="G14:H14"/>
+    <mergeCell ref="G15:H15"/>
+    <mergeCell ref="G16:H16"/>
+    <mergeCell ref="G17:H17"/>
+    <mergeCell ref="G18:H18"/>
+    <mergeCell ref="G19:H19"/>
+    <mergeCell ref="G20:H20"/>
+    <mergeCell ref="G21:H21"/>
+    <mergeCell ref="G22:H22"/>
+    <mergeCell ref="G23:H23"/>
+    <mergeCell ref="G24:H24"/>
+    <mergeCell ref="G25:H25"/>
+    <mergeCell ref="G26:H26"/>
+    <mergeCell ref="G27:H27"/>
+    <mergeCell ref="G28:H28"/>
+    <mergeCell ref="G29:H29"/>
+    <mergeCell ref="G30:H30"/>
+    <mergeCell ref="G31:H31"/>
+    <mergeCell ref="G32:H32"/>
+    <mergeCell ref="G33:H33"/>
+    <mergeCell ref="G34:H34"/>
+    <mergeCell ref="G35:H35"/>
+    <mergeCell ref="G36:H36"/>
+    <mergeCell ref="G37:H37"/>
+    <mergeCell ref="G38:H38"/>
+    <mergeCell ref="G39:H39"/>
+    <mergeCell ref="G40:H40"/>
+    <mergeCell ref="G41:H41"/>
+    <mergeCell ref="G42:H42"/>
+    <mergeCell ref="G43:H43"/>
+    <mergeCell ref="G44:H44"/>
+    <mergeCell ref="G45:H45"/>
+    <mergeCell ref="G46:H46"/>
+    <mergeCell ref="G47:H47"/>
+    <mergeCell ref="G48:H48"/>
+    <mergeCell ref="G49:H49"/>
+    <mergeCell ref="G50:H50"/>
+    <mergeCell ref="G51:H51"/>
+    <mergeCell ref="G52:H52"/>
+    <mergeCell ref="G53:H53"/>
+    <mergeCell ref="G54:H54"/>
+    <mergeCell ref="G55:H55"/>
+    <mergeCell ref="G56:H56"/>
+    <mergeCell ref="G57:H57"/>
+    <mergeCell ref="G58:H58"/>
+    <mergeCell ref="G59:H59"/>
+    <mergeCell ref="G60:H60"/>
+    <mergeCell ref="G61:H61"/>
+    <mergeCell ref="A64:G64"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="A14" r:id="rId7"/>
+    <hyperlink ref="A64" r:id="rId7"/>
   </hyperlinks>
   <pageMargins left="1" right="1" top="1" bottom="1" header="1" footer="1"/>
   <pageSetup paperSize="0" orientation="landscape" horizontalDpi="300" verticalDpi="300"/>
